--- a/uploads/card_option.xlsx
+++ b/uploads/card_option.xlsx
@@ -8,21 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\checc\PycharmProjects\redprinting_crolling2\list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F832E5-1A80-4BB5-8B36-15A60B9D8044}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550FA9A5-5D66-4623-80B5-EDD2BF807301}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="37470" windowHeight="21840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="76680" yWindow="-120" windowWidth="17310" windowHeight="29040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="case_item" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="131">
   <si>
     <t>BCSPDFT</t>
   </si>
@@ -181,6 +194,324 @@
   </si>
   <si>
     <t>STTHCIC</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRCAFIL</t>
+  </si>
+  <si>
+    <t>스노우_300</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>양면</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>55*85</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,50,100,200,300,400,500,1000,2000,3000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>200,400,600,800,1000,2000,3000,4000,5000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCDFQLT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>성인용,아동용</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>오트밀,모쿠그레이,블랙,딥네이비</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>투명PET_50</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*50,140*200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,1000,2000,3000,4000,5000,6000,8000,10000,12000,14000,15000,16000,18000,20000,30000,40000,50000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>개별재단</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STCUXXX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STTHUSR</t>
+  </si>
+  <si>
+    <t>2,4,6,8,10,20,50,80,100,200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A5(152x214),A4(214x301)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>STPADIY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>35*35,45*45,55*55,65*65,70*70,80*80,90*90,100*100</t>
+  </si>
+  <si>
+    <t>유포인디고_150</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>32*32,44*44,58*58,75*75</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>무광,유광,홀로그램무지개</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>37*37</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>57*52</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,10,20,30,40,50,60,70,80,90,100,200,300,400,500,1000,2000,3000,4000,5000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTPNXXX1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTPNXXX2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BTPNXXX3</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>50*50,65*65,80*80,140*200</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000,2000,3000,4000,5000,6000,7000,8000,9000,10000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,400,500,1000,2000,3000,4000,5000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCDFDFT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>반누보화이트_250g,매쉬멜로우White_262g,랑데뷰내츄럴_240g,랑데뷰울트라화이트_240g,스코틀랜드_220g</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우_250g,스노우_300g,백색모조_220g</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,200,300,400,500,1000,2000,3000,4000,5000,10000</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>NCDFCPN</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRPORSO</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRT_MRD,PRT_MOG,PRT_MGN,PRT_MBL,PRT_MNV,PRT_MFG,PRT_MBK</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>사이즈직접입력,A4(214x301),B4(8절)(261x368)</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,5,10,20,30,40,50,100,200,300,400,500,600,700,800,900,1000,2000,3000,4000,5000</t>
+  </si>
+  <si>
+    <t>문켄 프린트 크림_x,문켄 퓨어 러프_x,문켄 폴라 러프_x,만화지(연회색)_x</t>
+  </si>
+  <si>
+    <t>PHPRFRM</t>
+  </si>
+  <si>
+    <t>인화용지(유광)_x,인화용지(반광-러스터)_x</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>2x6 (53 X 154),4x6 (104 X 154)</t>
+  </si>
+  <si>
+    <t>1,10,50,100,500,1000,5000</t>
+  </si>
+  <si>
+    <t>시냅스(미색 PET)_230,시냅스(미색 PET)_300,고투명 PET_175,고투명 PET_250,레토 화이트_175,레토 트레이스(반투명)_150</t>
+  </si>
+  <si>
+    <t>PRPOWTT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>도수</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>A2(424x598),A3(301x424),A4(214x301),B3(4절)(368x519),B4(8절)(261x368)</t>
+  </si>
+  <si>
+    <t>아트지_120,아트지_150,아트지_250,아트지_300,스노우_180,스노우_200,스노우_300,매쉬멜로우White_262,반누보화이트_250,백색모조_150,백색모조_180,랑데뷰울트라화이트_160,랑데뷰울트라화이트_210,얼스팩_150</t>
+  </si>
+  <si>
+    <t>PRPOXXX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>PRPOXSP</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트지_120,아트지_150,아트지_250,아트지_300</t>
+  </si>
+  <si>
+    <t>500X700(504x704),360X500(364x504),250X360(254x364)</t>
+  </si>
+  <si>
+    <t>50,100,200,300,400,500,1000,5000</t>
+  </si>
+  <si>
+    <t>PRPOXPO</t>
+  </si>
+  <si>
+    <t>아트지_180,아트지_200,아트지_250,아트지_300</t>
+  </si>
+  <si>
+    <t>A3(301x424),A4(214x301)</t>
+  </si>
+  <si>
+    <t>인바이런먼트(크라프트필)_216,시리오칼라 블랙_290,시리오칼라 다크블루_290,시리오칼라 레드_290</t>
+  </si>
+  <si>
+    <t>A3(301x424),A2(424x598),A4(214x301),B3(4절)(368x519),B4(8절)(261x368)</t>
+  </si>
+  <si>
+    <t>PRPOWHT</t>
+  </si>
+  <si>
+    <t>일반 251x19(255x23),일반(쿠폰 2개) 302x19(306x23),일반(쿠폰 1개) 277x19(281x23),유아용 203x19(207x23),유아용(쿠폰 2개) 254x19(258x23),유아용(쿠폰 1개) 229x19(233x23)</t>
+  </si>
+  <si>
+    <t>타이벡_75</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>20,100,200,300,400,500,1000</t>
+  </si>
+  <si>
+    <t>WBXXXXX</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>용지</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>아트지 라벨_90,크라프트라벨_57,얼스팩 스티커_70,투명PET_50,유포 스티커_80,유포 리무버블_100,금광 PET_50,은광 PET_50</t>
+  </si>
+  <si>
+    <t>A5(152x214),A6(109x152),A4(214x301),50X195(54x199),80X195(84x199),80X145(84x149)</t>
+  </si>
+  <si>
+    <t>x,ST001,ST002,ST004,ST005,ST006</t>
+  </si>
+  <si>
+    <t>GSNTMIS</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>그문드 캔버스 화이트_300,백색모조_220,얼스팩_226</t>
+  </si>
+  <si>
+    <t>1,5,10,50,100</t>
+  </si>
+  <si>
+    <t>무지노트,줄노트</t>
+  </si>
+  <si>
+    <t>BID_SIL_IN1_0,BID_SIL_IN1_1,BID_SIL_IN1_2,BID_SIL_IN1_3,BID_SIL_IN1_4,BID_SIL_IN1_5</t>
+  </si>
+  <si>
+    <t>SIZE_SUB_RADIO_1,SIZE_SUB_RADIO_2</t>
+  </si>
+  <si>
+    <t>70X140(M형 티켓),156X60(I형 티켓),194X78(보딩패스 티켓)</t>
+  </si>
+  <si>
+    <t>아트지_200,아트지_300,스노우_200,스노우_300,메쉬멜로우White_262,마제스틱마블화이트_250,크라프트보드_240,반누보화이트_250,띤또레또_250,백색모조_220,얼스팩_226</t>
+  </si>
+  <si>
+    <t>단면,양면</t>
+  </si>
+  <si>
+    <t>1,10,20,30,40,50,100,200,300,400,500,1000,2000,3000,4000,5000,10000</t>
+  </si>
+  <si>
+    <t>코팅없음,단면 무광,단면 유광,양면 무광,양면 유광</t>
+  </si>
+  <si>
+    <t>TPTKDFT</t>
+  </si>
+  <si>
+    <t>PRCAFIL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>스노우_300</t>
+  </si>
+  <si>
+    <t>양면,단면</t>
+  </si>
+  <si>
+    <t>55X85(59X89),54X86(58X90)</t>
+  </si>
+  <si>
+    <t>양면 무광,양면 유광</t>
+  </si>
+  <si>
+    <t>1,10,20,30,40,50,100,200,300,400,500,1000,2000,3000,4000,5000,10000,20000</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -788,7 +1119,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -804,6 +1135,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1182,10 +1514,1150 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="D7" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA50D29-CF0C-415A-83DD-DFD3E988F875}">
+  <dimension ref="A1:K32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="74.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="1"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="1" customFormat="1">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="4">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="1:11" s="1" customFormat="1">
+      <c r="A6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:11" s="1" customFormat="1">
+      <c r="A9" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="1" customFormat="1">
+      <c r="A10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="1" customFormat="1">
+      <c r="A11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="1" customFormat="1">
+      <c r="A12" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="1" customFormat="1">
+      <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="1" customFormat="1">
+      <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="1" customFormat="1">
+      <c r="A15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="1" customFormat="1">
+      <c r="A16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="1" customFormat="1">
+      <c r="A17" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" s="1" customFormat="1">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" s="1" customFormat="1">
+      <c r="A19" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" s="1" customFormat="1">
+      <c r="A20" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" s="1" customFormat="1">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>85</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22" t="s">
+        <v>85</v>
+      </c>
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" s="1" customFormat="1">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" s="1" customFormat="1">
+      <c r="A24" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" s="1" customFormat="1">
+      <c r="A25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" s="1" customFormat="1">
+      <c r="A26" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" s="1" customFormat="1">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" s="1" customFormat="1">
+      <c r="A28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" s="1" customFormat="1">
+      <c r="A29" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:11" s="1" customFormat="1">
+      <c r="A32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566E305-1B73-4D72-9242-D849BB1B8B07}">
   <dimension ref="A1:K19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1205,16 +2677,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
@@ -1250,42 +2722,119 @@
     </row>
     <row r="3" spans="1:11" customFormat="1">
       <c r="A3" s="1" t="s">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E3" s="4">
-        <v>1</v>
+        <v>32</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="B4" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" customFormat="1">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" customFormat="1">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
+      <c r="G6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2"/>
@@ -1316,418 +2865,6 @@
       <c r="C15" s="2"/>
     </row>
     <row r="16" spans="1:11">
-      <c r="A16" s="2"/>
-      <c r="C16" s="2"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
-      <c r="C17" s="2"/>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2"/>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="C19" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA50D29-CF0C-415A-83DD-DFD3E988F875}">
-  <dimension ref="A1:K6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K2" s="1"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:11" s="1" customFormat="1">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
-  </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7566E305-1B73-4D72-9242-D849BB1B8B07}">
-  <dimension ref="A1:J19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="74.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" customFormat="1">
-      <c r="A3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="B4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="3"/>
-    </row>
-    <row r="5" spans="1:10" customFormat="1">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="2"/>
-      <c r="C8" s="2"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="2"/>
-      <c r="C10" s="2"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="2"/>
-      <c r="C11" s="2"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="2"/>
-      <c r="C12" s="2"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="2"/>
-      <c r="C13" s="2"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="2"/>
-      <c r="C14" s="2"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="2"/>
-      <c r="C15" s="2"/>
-    </row>
-    <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="C16" s="2"/>
     </row>
